--- a/data/expected_death_0_69_2020.xlsx
+++ b/data/expected_death_0_69_2020.xlsx
@@ -1595,10 +1595,10 @@
         <v>55.8606200633797</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>31.975</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>80.025</v>
       </c>
     </row>
     <row r="3">
@@ -1627,10 +1627,10 @@
         <v>58.1372016835197</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>27.975</v>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -1659,10 +1659,10 @@
         <v>79.9625680810834</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>111.025</v>
       </c>
     </row>
     <row r="5">
@@ -1691,10 +1691,10 @@
         <v>47.6591925982939</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>21.975</v>
       </c>
       <c r="J5" t="n">
-        <v>90.025</v>
+        <v>99.025</v>
       </c>
     </row>
     <row r="6">
@@ -1723,10 +1723,10 @@
         <v>51.8004750359843</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>86.025</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1755,10 +1755,10 @@
         <v>42.0241973056673</v>
       </c>
       <c r="I7" t="n">
-        <v>20.975</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>111.025</v>
+        <v>114.025</v>
       </c>
     </row>
     <row r="8">
@@ -1787,10 +1787,10 @@
         <v>180.86447520509</v>
       </c>
       <c r="I8" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J8" t="n">
-        <v>226.025</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1819,10 +1819,10 @@
         <v>199.719911618479</v>
       </c>
       <c r="I9" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J9" t="n">
-        <v>251.025</v>
+        <v>252.025</v>
       </c>
     </row>
     <row r="10">
@@ -1854,7 +1854,7 @@
         <v>186</v>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -1883,10 +1883,10 @@
         <v>132.369853516523</v>
       </c>
       <c r="I11" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J11" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -1915,10 +1915,10 @@
         <v>130.988263126154</v>
       </c>
       <c r="I12" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J12" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1947,10 +1947,10 @@
         <v>118.759225411326</v>
       </c>
       <c r="I13" t="n">
-        <v>93.975</v>
+        <v>94</v>
       </c>
       <c r="J13" t="n">
-        <v>159.025</v>
+        <v>160.025</v>
       </c>
     </row>
     <row r="14">
@@ -1979,10 +1979,10 @@
         <v>140.430136833498</v>
       </c>
       <c r="I14" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
@@ -2014,7 +2014,7 @@
         <v>87</v>
       </c>
       <c r="J15" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
@@ -2043,10 +2043,10 @@
         <v>116.35420592249</v>
       </c>
       <c r="I16" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J16" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -2075,10 +2075,10 @@
         <v>153.185947611215</v>
       </c>
       <c r="I17" t="n">
-        <v>121</v>
+        <v>119.975</v>
       </c>
       <c r="J17" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18">
@@ -2107,10 +2107,10 @@
         <v>155.122939756906</v>
       </c>
       <c r="I18" t="n">
-        <v>108.975</v>
+        <v>108</v>
       </c>
       <c r="J18" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -2142,7 +2142,7 @@
         <v>136</v>
       </c>
       <c r="J19" t="n">
-        <v>196.025</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -2171,7 +2171,7 @@
         <v>109.527679785501</v>
       </c>
       <c r="I20" t="n">
-        <v>80</v>
+        <v>81.975</v>
       </c>
       <c r="J20" t="n">
         <v>136</v>
@@ -2203,10 +2203,10 @@
         <v>102.584339776802</v>
       </c>
       <c r="I21" t="n">
-        <v>73</v>
+        <v>70.975</v>
       </c>
       <c r="J21" t="n">
-        <v>136.025</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
@@ -2235,10 +2235,10 @@
         <v>91.5316500422625</v>
       </c>
       <c r="I22" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="n">
-        <v>139.025</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -2267,10 +2267,10 @@
         <v>104.814992462297</v>
       </c>
       <c r="I23" t="n">
-        <v>68</v>
+        <v>65.975</v>
       </c>
       <c r="J23" t="n">
-        <v>205</v>
+        <v>200.05</v>
       </c>
     </row>
     <row r="24">
@@ -2299,10 +2299,10 @@
         <v>84.024901450871</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" t="n">
-        <v>271</v>
+        <v>274.025</v>
       </c>
     </row>
     <row r="25">
@@ -2331,10 +2331,10 @@
         <v>70.4220104035204</v>
       </c>
       <c r="I25" t="n">
-        <v>40.975</v>
+        <v>39.975</v>
       </c>
       <c r="J25" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -2366,7 +2366,7 @@
         <v>104</v>
       </c>
       <c r="J26" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
@@ -2395,10 +2395,10 @@
         <v>131.164268937069</v>
       </c>
       <c r="I27" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J27" t="n">
-        <v>177.05</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
@@ -2427,10 +2427,10 @@
         <v>148.001548759246</v>
       </c>
       <c r="I28" t="n">
-        <v>107</v>
+        <v>105.975</v>
       </c>
       <c r="J28" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
@@ -2459,10 +2459,10 @@
         <v>233.680708310486</v>
       </c>
       <c r="I29" t="n">
-        <v>191.975</v>
+        <v>194.975</v>
       </c>
       <c r="J29" t="n">
-        <v>289</v>
+        <v>292.025</v>
       </c>
     </row>
     <row r="30">
@@ -2491,10 +2491,10 @@
         <v>241.548139867772</v>
       </c>
       <c r="I30" t="n">
-        <v>177</v>
+        <v>181.975</v>
       </c>
       <c r="J30" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
@@ -2523,10 +2523,10 @@
         <v>244.822996624143</v>
       </c>
       <c r="I31" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J31" t="n">
-        <v>283.05</v>
+        <v>288.025</v>
       </c>
     </row>
     <row r="32">
@@ -2555,10 +2555,10 @@
         <v>671.188050731829</v>
       </c>
       <c r="I32" t="n">
-        <v>595</v>
+        <v>595.975</v>
       </c>
       <c r="J32" t="n">
-        <v>734.125</v>
+        <v>744.025</v>
       </c>
     </row>
     <row r="33">
@@ -2587,10 +2587,10 @@
         <v>689.631300783621</v>
       </c>
       <c r="I33" t="n">
-        <v>574.975</v>
+        <v>591.975</v>
       </c>
       <c r="J33" t="n">
-        <v>759</v>
+        <v>753.025</v>
       </c>
     </row>
     <row r="34">
@@ -2619,10 +2619,10 @@
         <v>681.593074213327</v>
       </c>
       <c r="I34" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J34" t="n">
-        <v>755.025</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35">
@@ -2651,10 +2651,10 @@
         <v>219.612978479871</v>
       </c>
       <c r="I35" t="n">
-        <v>175</v>
+        <v>172.975</v>
       </c>
       <c r="J35" t="n">
-        <v>261.025</v>
+        <v>258.025</v>
       </c>
     </row>
     <row r="36">
@@ -2683,10 +2683,10 @@
         <v>178.784729354746</v>
       </c>
       <c r="I36" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J36" t="n">
-        <v>272.05</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -2715,10 +2715,10 @@
         <v>175.135411882586</v>
       </c>
       <c r="I37" t="n">
-        <v>104</v>
+        <v>101.975</v>
       </c>
       <c r="J37" t="n">
-        <v>312</v>
+        <v>305.025</v>
       </c>
     </row>
     <row r="38">
@@ -2747,10 +2747,10 @@
         <v>130.548782269043</v>
       </c>
       <c r="I38" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J38" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
@@ -2779,10 +2779,10 @@
         <v>103.822409564672</v>
       </c>
       <c r="I39" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J39" t="n">
-        <v>158</v>
+        <v>152.025</v>
       </c>
     </row>
     <row r="40">
@@ -2811,7 +2811,7 @@
         <v>118.203633156634</v>
       </c>
       <c r="I40" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J40" t="n">
         <v>169</v>
@@ -2843,10 +2843,10 @@
         <v>143.386312146958</v>
       </c>
       <c r="I41" t="n">
-        <v>112.975</v>
+        <v>111.975</v>
       </c>
       <c r="J41" t="n">
-        <v>266</v>
+        <v>266.025</v>
       </c>
     </row>
     <row r="42">
@@ -2875,10 +2875,10 @@
         <v>117.814110295377</v>
       </c>
       <c r="I42" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
@@ -2907,7 +2907,7 @@
         <v>115.612121168712</v>
       </c>
       <c r="I43" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J43" t="n">
         <v>138</v>
@@ -2939,7 +2939,7 @@
         <v>150.95545095632</v>
       </c>
       <c r="I44" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J44" t="n">
         <v>177</v>
@@ -2971,10 +2971,10 @@
         <v>197.384247078384</v>
       </c>
       <c r="I45" t="n">
-        <v>125.975</v>
+        <v>128</v>
       </c>
       <c r="J45" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
@@ -3003,10 +3003,10 @@
         <v>168.312237926126</v>
       </c>
       <c r="I46" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J46" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
@@ -3035,10 +3035,10 @@
         <v>646.190384335902</v>
       </c>
       <c r="I47" t="n">
-        <v>530</v>
+        <v>521.975</v>
       </c>
       <c r="J47" t="n">
-        <v>718</v>
+        <v>724.025</v>
       </c>
     </row>
     <row r="48">
@@ -3067,10 +3067,10 @@
         <v>649.428068933102</v>
       </c>
       <c r="I48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J48" t="n">
-        <v>763.05</v>
+        <v>754.025</v>
       </c>
     </row>
     <row r="49">
@@ -3102,7 +3102,7 @@
         <v>477</v>
       </c>
       <c r="J49" t="n">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50">
@@ -3131,10 +3131,10 @@
         <v>199.604305088495</v>
       </c>
       <c r="I50" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J50" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51">
@@ -3163,10 +3163,10 @@
         <v>175.105553250884</v>
       </c>
       <c r="I51" t="n">
-        <v>141</v>
+        <v>140.975</v>
       </c>
       <c r="J51" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -3195,10 +3195,10 @@
         <v>166.052067366615</v>
       </c>
       <c r="I52" t="n">
-        <v>127.975</v>
+        <v>123</v>
       </c>
       <c r="J52" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53">
@@ -3227,10 +3227,10 @@
         <v>34.7203217240713</v>
       </c>
       <c r="I53" t="n">
-        <v>21</v>
+        <v>21.975</v>
       </c>
       <c r="J53" t="n">
-        <v>47.025</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -3259,7 +3259,7 @@
         <v>25.5239726242233</v>
       </c>
       <c r="I54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
         <v>51</v>
@@ -3291,10 +3291,10 @@
         <v>27.6022756738824</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>60.05</v>
+        <v>60.025</v>
       </c>
     </row>
     <row r="56">
@@ -3323,10 +3323,10 @@
         <v>69.1944307292931</v>
       </c>
       <c r="I56" t="n">
-        <v>46.975</v>
+        <v>48</v>
       </c>
       <c r="J56" t="n">
-        <v>89.025</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -3355,7 +3355,7 @@
         <v>60.256011038631</v>
       </c>
       <c r="I57" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J57" t="n">
         <v>89</v>
@@ -3387,10 +3387,10 @@
         <v>57.4484808151456</v>
       </c>
       <c r="I58" t="n">
-        <v>34.975</v>
+        <v>35</v>
       </c>
       <c r="J58" t="n">
-        <v>89.025</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
@@ -3419,10 +3419,10 @@
         <v>86.108180853044</v>
       </c>
       <c r="I59" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J59" t="n">
-        <v>183.05</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60">
@@ -3451,10 +3451,10 @@
         <v>88.9397909001619</v>
       </c>
       <c r="I60" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J60" t="n">
-        <v>229.025</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61">
@@ -3483,10 +3483,10 @@
         <v>76.957233251733</v>
       </c>
       <c r="I61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J61" t="n">
-        <v>135.075</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -3515,10 +3515,10 @@
         <v>267.580392514521</v>
       </c>
       <c r="I62" t="n">
-        <v>182.975</v>
+        <v>187</v>
       </c>
       <c r="J62" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63">
@@ -3550,7 +3550,7 @@
         <v>160.975</v>
       </c>
       <c r="J63" t="n">
-        <v>349</v>
+        <v>352.025</v>
       </c>
     </row>
     <row r="64">
@@ -3579,10 +3579,10 @@
         <v>305.421070733534</v>
       </c>
       <c r="I64" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J64" t="n">
-        <v>391</v>
+        <v>409.025</v>
       </c>
     </row>
     <row r="65">
@@ -3611,10 +3611,10 @@
         <v>112.23145426643</v>
       </c>
       <c r="I65" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J65" t="n">
-        <v>143</v>
+        <v>143.05</v>
       </c>
     </row>
     <row r="66">
@@ -3643,10 +3643,10 @@
         <v>106.263909015029</v>
       </c>
       <c r="I66" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J66" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67">
@@ -3675,10 +3675,10 @@
         <v>95.6057713333036</v>
       </c>
       <c r="I67" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J67" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68">
@@ -3707,10 +3707,10 @@
         <v>89.9400271356468</v>
       </c>
       <c r="I68" t="n">
-        <v>43</v>
+        <v>42.975</v>
       </c>
       <c r="J68" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69">
@@ -3739,10 +3739,10 @@
         <v>97.8909230155349</v>
       </c>
       <c r="I69" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J69" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -3771,10 +3771,10 @@
         <v>96.4910550479053</v>
       </c>
       <c r="I70" t="n">
-        <v>66.975</v>
+        <v>64</v>
       </c>
       <c r="J70" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71">
@@ -3803,10 +3803,10 @@
         <v>91.1980415039897</v>
       </c>
       <c r="I71" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J71" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72">
@@ -3838,7 +3838,7 @@
         <v>41</v>
       </c>
       <c r="J72" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
@@ -3867,10 +3867,10 @@
         <v>83.6692686874374</v>
       </c>
       <c r="I73" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J73" t="n">
-        <v>149</v>
+        <v>145.025</v>
       </c>
     </row>
     <row r="74">
@@ -3899,10 +3899,10 @@
         <v>29.7511453812268</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>7.97500000000002</v>
       </c>
       <c r="J74" t="n">
-        <v>63</v>
+        <v>64.025</v>
       </c>
     </row>
     <row r="75">
@@ -3931,10 +3931,10 @@
         <v>30.7820130178908</v>
       </c>
       <c r="I75" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J75" t="n">
-        <v>86</v>
+        <v>81.025</v>
       </c>
     </row>
     <row r="76">
@@ -3963,10 +3963,10 @@
         <v>32.2001421231284</v>
       </c>
       <c r="I76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -3995,10 +3995,10 @@
         <v>70.9213300469017</v>
       </c>
       <c r="I77" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J77" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78">
@@ -4027,10 +4027,10 @@
         <v>58.420329397265</v>
       </c>
       <c r="I78" t="n">
-        <v>41</v>
+        <v>41.975</v>
       </c>
       <c r="J78" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
@@ -4094,7 +4094,7 @@
         <v>8</v>
       </c>
       <c r="J80" t="n">
-        <v>35.025</v>
+        <v>31.025</v>
       </c>
     </row>
     <row r="81">
@@ -4126,7 +4126,7 @@
         <v>7</v>
       </c>
       <c r="J81" t="n">
-        <v>30.025</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -4155,10 +4155,10 @@
         <v>27.1310141973373</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J82" t="n">
-        <v>39.025</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -4283,10 +4283,10 @@
         <v>34.8510056835754</v>
       </c>
       <c r="I86" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" t="n">
-        <v>183</v>
+        <v>185.025</v>
       </c>
     </row>
     <row r="87">
@@ -4315,10 +4315,10 @@
         <v>24.7122068056299</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
@@ -4350,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>55.025</v>
+        <v>58.025</v>
       </c>
     </row>
     <row r="89">
@@ -4382,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>90.025</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90">
@@ -4414,7 +4414,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>150.025</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
@@ -4475,10 +4475,10 @@
         <v>57.4272749054758</v>
       </c>
       <c r="I92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J92" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93">
@@ -4507,10 +4507,10 @@
         <v>41.7696567690919</v>
       </c>
       <c r="I93" t="n">
-        <v>20</v>
+        <v>19.975</v>
       </c>
       <c r="J93" t="n">
-        <v>63</v>
+        <v>64.025</v>
       </c>
     </row>
     <row r="94">
@@ -4539,10 +4539,10 @@
         <v>55.0286293795292</v>
       </c>
       <c r="I94" t="n">
-        <v>32.975</v>
+        <v>33.975</v>
       </c>
       <c r="J94" t="n">
-        <v>74.025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -4571,10 +4571,10 @@
         <v>79.5770199393528</v>
       </c>
       <c r="I95" t="n">
-        <v>55</v>
+        <v>56.975</v>
       </c>
       <c r="J95" t="n">
-        <v>126.05</v>
+        <v>124.025</v>
       </c>
     </row>
     <row r="96">
@@ -4603,10 +4603,10 @@
         <v>92.714808279644</v>
       </c>
       <c r="I96" t="n">
-        <v>52</v>
+        <v>55.975</v>
       </c>
       <c r="J96" t="n">
-        <v>142</v>
+        <v>149.025</v>
       </c>
     </row>
     <row r="97">
@@ -4635,10 +4635,10 @@
         <v>93.4862928146892</v>
       </c>
       <c r="I97" t="n">
-        <v>45</v>
+        <v>45.975</v>
       </c>
       <c r="J97" t="n">
-        <v>136</v>
+        <v>142.025</v>
       </c>
     </row>
     <row r="98">
@@ -4670,7 +4670,7 @@
         <v>37</v>
       </c>
       <c r="J98" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
@@ -4699,10 +4699,10 @@
         <v>63.0996402892815</v>
       </c>
       <c r="I99" t="n">
-        <v>45.975</v>
+        <v>45</v>
       </c>
       <c r="J99" t="n">
-        <v>113.025</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100">
@@ -4731,10 +4731,10 @@
         <v>45.6789122269204</v>
       </c>
       <c r="I100" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J100" t="n">
-        <v>66.025</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101">
@@ -4763,10 +4763,10 @@
         <v>56.9039199018055</v>
       </c>
       <c r="I101" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J101" t="n">
-        <v>81</v>
+        <v>82.025</v>
       </c>
     </row>
     <row r="102">
@@ -4795,10 +4795,10 @@
         <v>61.9132132192874</v>
       </c>
       <c r="I102" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J102" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103">
@@ -4827,10 +4827,10 @@
         <v>65.2487195504996</v>
       </c>
       <c r="I103" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J103" t="n">
-        <v>89</v>
+        <v>90.025</v>
       </c>
     </row>
     <row r="104">
@@ -4859,7 +4859,7 @@
         <v>61.4061493973807</v>
       </c>
       <c r="I104" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J104" t="n">
         <v>82</v>
@@ -4891,7 +4891,7 @@
         <v>67.995967642536</v>
       </c>
       <c r="I105" t="n">
-        <v>40.975</v>
+        <v>41.975</v>
       </c>
       <c r="J105" t="n">
         <v>92</v>
@@ -4923,10 +4923,10 @@
         <v>88.6815022426806</v>
       </c>
       <c r="I106" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J106" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
@@ -4955,10 +4955,10 @@
         <v>124.289286133106</v>
       </c>
       <c r="I107" t="n">
-        <v>87</v>
+        <v>90.975</v>
       </c>
       <c r="J107" t="n">
-        <v>156</v>
+        <v>155.025</v>
       </c>
     </row>
     <row r="108">
@@ -4987,7 +4987,7 @@
         <v>146.474794660743</v>
       </c>
       <c r="I108" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J108" t="n">
         <v>183</v>
@@ -5019,7 +5019,7 @@
         <v>156.800511979355</v>
       </c>
       <c r="I109" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J109" t="n">
         <v>198.025</v>
@@ -5054,7 +5054,7 @@
         <v>42</v>
       </c>
       <c r="J110" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
@@ -5083,10 +5083,10 @@
         <v>52.6525178697643</v>
       </c>
       <c r="I111" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J111" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
@@ -5115,10 +5115,10 @@
         <v>50.5706736667974</v>
       </c>
       <c r="I112" t="n">
-        <v>36</v>
+        <v>36.975</v>
       </c>
       <c r="J112" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113">
@@ -5147,7 +5147,7 @@
         <v>30.3801234328746</v>
       </c>
       <c r="I113" t="n">
-        <v>20.975</v>
+        <v>20</v>
       </c>
       <c r="J113" t="n">
         <v>42</v>
@@ -5182,7 +5182,7 @@
         <v>23</v>
       </c>
       <c r="J114" t="n">
-        <v>51.025</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115">
@@ -5211,10 +5211,10 @@
         <v>38.8439614283322</v>
       </c>
       <c r="I115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J115" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116">
@@ -5243,10 +5243,10 @@
         <v>88.700760671725</v>
       </c>
       <c r="I116" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J116" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
@@ -5275,10 +5275,10 @@
         <v>84.3440112484427</v>
       </c>
       <c r="I117" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J117" t="n">
-        <v>133</v>
+        <v>127.025</v>
       </c>
     </row>
     <row r="118">
@@ -5307,10 +5307,10 @@
         <v>83.4662493251455</v>
       </c>
       <c r="I118" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J118" t="n">
-        <v>110.025</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
@@ -5339,10 +5339,10 @@
         <v>181.499465699502</v>
       </c>
       <c r="I119" t="n">
-        <v>107</v>
+        <v>108.925</v>
       </c>
       <c r="J119" t="n">
-        <v>224</v>
+        <v>221.05</v>
       </c>
     </row>
     <row r="120">
@@ -5371,10 +5371,10 @@
         <v>172.695432284351</v>
       </c>
       <c r="I120" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J120" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121">
@@ -5403,10 +5403,10 @@
         <v>156.214000986545</v>
       </c>
       <c r="I121" t="n">
-        <v>113.975</v>
+        <v>117</v>
       </c>
       <c r="J121" t="n">
-        <v>228</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="122">
@@ -5435,10 +5435,10 @@
         <v>55.0424214219416</v>
       </c>
       <c r="I122" t="n">
-        <v>28</v>
+        <v>30.975</v>
       </c>
       <c r="J122" t="n">
-        <v>109.025</v>
+        <v>112.025</v>
       </c>
     </row>
     <row r="123">
@@ -5467,10 +5467,10 @@
         <v>45.7687306519801</v>
       </c>
       <c r="I123" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J123" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124">
@@ -5502,7 +5502,7 @@
         <v>33</v>
       </c>
       <c r="J124" t="n">
-        <v>91.025</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125">
@@ -5531,10 +5531,10 @@
         <v>67.1352046945675</v>
       </c>
       <c r="I125" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J125" t="n">
-        <v>121</v>
+        <v>122.025</v>
       </c>
     </row>
     <row r="126">
@@ -5595,10 +5595,10 @@
         <v>61.3379953450065</v>
       </c>
       <c r="I127" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J127" t="n">
-        <v>95</v>
+        <v>95.025</v>
       </c>
     </row>
     <row r="128">
@@ -5659,10 +5659,10 @@
         <v>40.5262311992208</v>
       </c>
       <c r="I129" t="n">
-        <v>18</v>
+        <v>18.975</v>
       </c>
       <c r="J129" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130">
@@ -5691,10 +5691,10 @@
         <v>27.610735175725</v>
       </c>
       <c r="I130" t="n">
-        <v>10.975</v>
+        <v>11</v>
       </c>
       <c r="J130" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131">
@@ -5726,7 +5726,7 @@
         <v>66</v>
       </c>
       <c r="J131" t="n">
-        <v>115.025</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132">
@@ -5755,7 +5755,7 @@
         <v>113.505987397368</v>
       </c>
       <c r="I132" t="n">
-        <v>76.975</v>
+        <v>79</v>
       </c>
       <c r="J132" t="n">
         <v>142</v>
@@ -5790,7 +5790,7 @@
         <v>78</v>
       </c>
       <c r="J133" t="n">
-        <v>159.025</v>
+        <v>156.025</v>
       </c>
     </row>
     <row r="134">
@@ -5819,10 +5819,10 @@
         <v>53.4002300219587</v>
       </c>
       <c r="I134" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J134" t="n">
-        <v>147</v>
+        <v>151.025</v>
       </c>
     </row>
     <row r="135">
@@ -5851,10 +5851,10 @@
         <v>42.8983156220581</v>
       </c>
       <c r="I135" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J135" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136">
@@ -5883,7 +5883,7 @@
         <v>42.1704305739999</v>
       </c>
       <c r="I136" t="n">
-        <v>24.975</v>
+        <v>22</v>
       </c>
       <c r="J136" t="n">
         <v>62.025</v>
@@ -5915,10 +5915,10 @@
         <v>124.597481946784</v>
       </c>
       <c r="I137" t="n">
-        <v>54</v>
+        <v>56.975</v>
       </c>
       <c r="J137" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138">
@@ -5947,10 +5947,10 @@
         <v>126.693259413339</v>
       </c>
       <c r="I138" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J138" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139">
@@ -5979,10 +5979,10 @@
         <v>144.22100001756</v>
       </c>
       <c r="I139" t="n">
-        <v>109</v>
+        <v>110.975</v>
       </c>
       <c r="J139" t="n">
-        <v>250.025</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140">
@@ -6011,10 +6011,10 @@
         <v>129.529120089379</v>
       </c>
       <c r="I140" t="n">
-        <v>105</v>
+        <v>103.975</v>
       </c>
       <c r="J140" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141">
@@ -6043,10 +6043,10 @@
         <v>107.054358522925</v>
       </c>
       <c r="I141" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J141" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
@@ -6075,10 +6075,10 @@
         <v>81.4362206494911</v>
       </c>
       <c r="I142" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J142" t="n">
-        <v>143</v>
+        <v>144.025</v>
       </c>
     </row>
     <row r="143">
@@ -6110,7 +6110,7 @@
         <v>37</v>
       </c>
       <c r="J143" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144">
@@ -6139,10 +6139,10 @@
         <v>59.7670052723584</v>
       </c>
       <c r="I144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J144" t="n">
-        <v>92.025</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145">
@@ -6171,10 +6171,10 @@
         <v>59.0216840908321</v>
       </c>
       <c r="I145" t="n">
-        <v>34</v>
+        <v>34.975</v>
       </c>
       <c r="J145" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146">
@@ -6203,10 +6203,10 @@
         <v>303.154996665303</v>
       </c>
       <c r="I146" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J146" t="n">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147">
@@ -6235,10 +6235,10 @@
         <v>318.366209940754</v>
       </c>
       <c r="I147" t="n">
-        <v>238.975</v>
+        <v>243.975</v>
       </c>
       <c r="J147" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148">
@@ -6267,10 +6267,10 @@
         <v>317.617752782592</v>
       </c>
       <c r="I148" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J148" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149">
@@ -6299,10 +6299,10 @@
         <v>218.712254681898</v>
       </c>
       <c r="I149" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J149" t="n">
-        <v>261.05</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150">
@@ -6331,10 +6331,10 @@
         <v>213.036502314762</v>
       </c>
       <c r="I150" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J150" t="n">
-        <v>251.025</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151">
@@ -6363,10 +6363,10 @@
         <v>220.841795975781</v>
       </c>
       <c r="I151" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J151" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152">
@@ -6395,10 +6395,10 @@
         <v>53.7490289430116</v>
       </c>
       <c r="I152" t="n">
-        <v>35.975</v>
+        <v>35</v>
       </c>
       <c r="J152" t="n">
-        <v>140</v>
+        <v>137.075</v>
       </c>
     </row>
     <row r="153">
@@ -6427,10 +6427,10 @@
         <v>40.5767256233302</v>
       </c>
       <c r="I153" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J153" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154">
@@ -6459,10 +6459,10 @@
         <v>27.1028647108098</v>
       </c>
       <c r="I154" t="n">
-        <v>14.975</v>
+        <v>14</v>
       </c>
       <c r="J154" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
@@ -6491,10 +6491,10 @@
         <v>97.4771316765385</v>
       </c>
       <c r="I155" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J155" t="n">
-        <v>344</v>
+        <v>345.025</v>
       </c>
     </row>
     <row r="156">
@@ -6523,10 +6523,10 @@
         <v>86.9427223690629</v>
       </c>
       <c r="I156" t="n">
-        <v>40.975</v>
+        <v>39</v>
       </c>
       <c r="J156" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157">
@@ -6555,10 +6555,10 @@
         <v>83.2790362009531</v>
       </c>
       <c r="I157" t="n">
-        <v>28.975</v>
+        <v>30.975</v>
       </c>
       <c r="J157" t="n">
-        <v>164</v>
+        <v>169.05</v>
       </c>
     </row>
     <row r="158">
@@ -6587,10 +6587,10 @@
         <v>66.343754880716</v>
       </c>
       <c r="I158" t="n">
-        <v>33</v>
+        <v>34.975</v>
       </c>
       <c r="J158" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159">
@@ -6619,10 +6619,10 @@
         <v>55.611760078614</v>
       </c>
       <c r="I159" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J159" t="n">
-        <v>112</v>
+        <v>117.025</v>
       </c>
     </row>
     <row r="160">
@@ -6654,7 +6654,7 @@
         <v>21</v>
       </c>
       <c r="J160" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
@@ -6686,7 +6686,7 @@
         <v>11</v>
       </c>
       <c r="J161" t="n">
-        <v>93</v>
+        <v>95.025</v>
       </c>
     </row>
     <row r="162">
@@ -6715,10 +6715,10 @@
         <v>24.1128787666987</v>
       </c>
       <c r="I162" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J162" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163">
@@ -6750,7 +6750,7 @@
         <v>6</v>
       </c>
       <c r="J163" t="n">
-        <v>29.025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
@@ -6779,10 +6779,10 @@
         <v>119.377982735172</v>
       </c>
       <c r="I164" t="n">
-        <v>86.975</v>
+        <v>90</v>
       </c>
       <c r="J164" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165">
@@ -6811,10 +6811,10 @@
         <v>143.868599601365</v>
       </c>
       <c r="I165" t="n">
-        <v>96</v>
+        <v>96.95</v>
       </c>
       <c r="J165" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166">
@@ -6843,10 +6843,10 @@
         <v>147.994086508826</v>
       </c>
       <c r="I166" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J166" t="n">
-        <v>191.05</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167">
@@ -6875,10 +6875,10 @@
         <v>46.0331993069667</v>
       </c>
       <c r="I167" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J167" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168">
@@ -6907,10 +6907,10 @@
         <v>46.0611222701914</v>
       </c>
       <c r="I168" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J168" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169">
@@ -6939,7 +6939,7 @@
         <v>41.2137810051746</v>
       </c>
       <c r="I169" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J169" t="n">
         <v>61</v>
@@ -6974,7 +6974,7 @@
         <v>17</v>
       </c>
       <c r="J170" t="n">
-        <v>76.05</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171">
@@ -7003,10 +7003,10 @@
         <v>19.482292751692</v>
       </c>
       <c r="I171" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J171" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172">
@@ -7099,10 +7099,10 @@
         <v>26.6957875948581</v>
       </c>
       <c r="I174" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J174" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175">
@@ -7166,7 +7166,7 @@
         <v>5</v>
       </c>
       <c r="J176" t="n">
-        <v>50.025</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177">
@@ -7195,10 +7195,10 @@
         <v>20.6783104632283</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>107</v>
+        <v>102.025</v>
       </c>
     </row>
     <row r="179">
@@ -7259,10 +7259,10 @@
         <v>178.582901331651</v>
       </c>
       <c r="I179" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J179" t="n">
-        <v>206.025</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180">
@@ -7291,10 +7291,10 @@
         <v>179.34627752626</v>
       </c>
       <c r="I180" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J180" t="n">
-        <v>208.025</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181">
@@ -7323,10 +7323,10 @@
         <v>173.953289012747</v>
       </c>
       <c r="I181" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J181" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182">
@@ -7355,10 +7355,10 @@
         <v>72.6051023621786</v>
       </c>
       <c r="I182" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J182" t="n">
-        <v>94</v>
+        <v>91.025</v>
       </c>
     </row>
     <row r="183">
@@ -7387,10 +7387,10 @@
         <v>55.1711527308203</v>
       </c>
       <c r="I183" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J183" t="n">
-        <v>93.05</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184">
@@ -7419,10 +7419,10 @@
         <v>71.3436897476449</v>
       </c>
       <c r="I184" t="n">
-        <v>26</v>
+        <v>26.975</v>
       </c>
       <c r="J184" t="n">
-        <v>117.025</v>
+        <v>115.025</v>
       </c>
     </row>
     <row r="185">
@@ -7451,10 +7451,10 @@
         <v>87.8461337085291</v>
       </c>
       <c r="I185" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J185" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186">
@@ -7483,10 +7483,10 @@
         <v>90.4221362253031</v>
       </c>
       <c r="I186" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J186" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187">
@@ -7515,10 +7515,10 @@
         <v>92.2049789025929</v>
       </c>
       <c r="I187" t="n">
-        <v>66.95</v>
+        <v>65</v>
       </c>
       <c r="J187" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188">
@@ -7547,10 +7547,10 @@
         <v>59.7708881924765</v>
       </c>
       <c r="I188" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J188" t="n">
-        <v>94.025</v>
+        <v>94</v>
       </c>
     </row>
     <row r="189">
@@ -7579,10 +7579,10 @@
         <v>59.5238153040091</v>
       </c>
       <c r="I189" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J189" t="n">
-        <v>85.025</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190">
@@ -7611,10 +7611,10 @@
         <v>51.5956233743358</v>
       </c>
       <c r="I190" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J190" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191">
@@ -7643,10 +7643,10 @@
         <v>61.1424605406714</v>
       </c>
       <c r="I191" t="n">
-        <v>40</v>
+        <v>41.975</v>
       </c>
       <c r="J191" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192">
@@ -7675,10 +7675,10 @@
         <v>69.585220943224</v>
       </c>
       <c r="I192" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J192" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193">
@@ -7739,10 +7739,10 @@
         <v>86.7223201465486</v>
       </c>
       <c r="I194" t="n">
-        <v>69</v>
+        <v>68.975</v>
       </c>
       <c r="J194" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195">
@@ -7771,10 +7771,10 @@
         <v>101.142247338217</v>
       </c>
       <c r="I195" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J195" t="n">
-        <v>124.025</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196">
@@ -7803,10 +7803,10 @@
         <v>94.260758552003</v>
       </c>
       <c r="I196" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J196" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="197">
@@ -7835,10 +7835,10 @@
         <v>79.2048066428362</v>
       </c>
       <c r="I197" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J197" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198">
@@ -7867,10 +7867,10 @@
         <v>85.8242525577912</v>
       </c>
       <c r="I198" t="n">
-        <v>68</v>
+        <v>67.975</v>
       </c>
       <c r="J198" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199">
@@ -7899,10 +7899,10 @@
         <v>97.907404155829</v>
       </c>
       <c r="I199" t="n">
-        <v>77.975</v>
+        <v>77</v>
       </c>
       <c r="J199" t="n">
-        <v>118</v>
+        <v>118.025</v>
       </c>
     </row>
     <row r="200">
@@ -7934,7 +7934,7 @@
         <v>55</v>
       </c>
       <c r="J200" t="n">
-        <v>104.025</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201">
@@ -7963,10 +7963,10 @@
         <v>107.202102453412</v>
       </c>
       <c r="I201" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J201" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202">
@@ -7995,10 +7995,10 @@
         <v>138.859474622205</v>
       </c>
       <c r="I202" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J202" t="n">
-        <v>209</v>
+        <v>199.025</v>
       </c>
     </row>
     <row r="203">
@@ -8027,7 +8027,7 @@
         <v>20.4026445876041</v>
       </c>
       <c r="I203" t="n">
-        <v>10</v>
+        <v>9.97500000000002</v>
       </c>
       <c r="J203" t="n">
         <v>40</v>
@@ -8062,7 +8062,7 @@
         <v>7</v>
       </c>
       <c r="J204" t="n">
-        <v>44</v>
+        <v>42.025</v>
       </c>
     </row>
     <row r="205">
@@ -8091,10 +8091,10 @@
         <v>8.53725461357597</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>18.025</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209">
@@ -8219,10 +8219,10 @@
         <v>11.8107674107887</v>
       </c>
       <c r="I209" t="n">
-        <v>4.97500000000002</v>
+        <v>5</v>
       </c>
       <c r="J209" t="n">
-        <v>25.025</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210">
@@ -8254,7 +8254,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -8286,7 +8286,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="212">
@@ -8347,10 +8347,10 @@
         <v>32.0159674085975</v>
       </c>
       <c r="I213" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J213" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214">
@@ -8379,10 +8379,10 @@
         <v>36.5506512342739</v>
       </c>
       <c r="I214" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J214" t="n">
-        <v>61.025</v>
+        <v>60.025</v>
       </c>
     </row>
     <row r="215">
@@ -8411,10 +8411,10 @@
         <v>35.2836319234414</v>
       </c>
       <c r="I215" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J215" t="n">
-        <v>52.025</v>
+        <v>52</v>
       </c>
     </row>
     <row r="216">
@@ -8443,10 +8443,10 @@
         <v>43.335196876859</v>
       </c>
       <c r="I216" t="n">
-        <v>24.975</v>
+        <v>26</v>
       </c>
       <c r="J216" t="n">
-        <v>62.025</v>
+        <v>65.025</v>
       </c>
     </row>
     <row r="217">
@@ -8475,10 +8475,10 @@
         <v>52.1079873344035</v>
       </c>
       <c r="I217" t="n">
-        <v>33.975</v>
+        <v>36</v>
       </c>
       <c r="J217" t="n">
-        <v>75</v>
+        <v>78.025</v>
       </c>
     </row>
     <row r="218">
@@ -8507,10 +8507,10 @@
         <v>20.290107525598</v>
       </c>
       <c r="I218" t="n">
-        <v>5.97500000000002</v>
+        <v>4.97500000000002</v>
       </c>
       <c r="J218" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219">
@@ -8539,10 +8539,10 @@
         <v>25.1763525272439</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J219" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220">
@@ -8571,10 +8571,10 @@
         <v>25.0274677399258</v>
       </c>
       <c r="I220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J220" t="n">
-        <v>57</v>
+        <v>58.025</v>
       </c>
     </row>
     <row r="221">
@@ -8606,7 +8606,7 @@
         <v>2</v>
       </c>
       <c r="J221" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222">
@@ -8638,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="n">
-        <v>74</v>
+        <v>72.025</v>
       </c>
     </row>
     <row r="223">
@@ -8667,10 +8667,10 @@
         <v>26.8503351703842</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="n">
-        <v>227</v>
+        <v>223.025</v>
       </c>
     </row>
     <row r="224">
@@ -8699,10 +8699,10 @@
         <v>60.2420602629965</v>
       </c>
       <c r="I224" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J224" t="n">
-        <v>96</v>
+        <v>93.025</v>
       </c>
     </row>
     <row r="225">
@@ -8731,10 +8731,10 @@
         <v>95.4468082020653</v>
       </c>
       <c r="I225" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J225" t="n">
-        <v>132.05</v>
+        <v>132.025</v>
       </c>
     </row>
     <row r="226">
@@ -8763,10 +8763,10 @@
         <v>92.6151032084329</v>
       </c>
       <c r="I226" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J226" t="n">
-        <v>198</v>
+        <v>190.025</v>
       </c>
     </row>
     <row r="227">
@@ -8798,7 +8798,7 @@
         <v>8</v>
       </c>
       <c r="J227" t="n">
-        <v>142</v>
+        <v>131.025</v>
       </c>
     </row>
     <row r="228">
@@ -8827,10 +8827,10 @@
         <v>53.8233858225481</v>
       </c>
       <c r="I228" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J228" t="n">
-        <v>237.05</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229">
@@ -8859,10 +8859,10 @@
         <v>47.7482938123517</v>
       </c>
       <c r="I229" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J229" t="n">
-        <v>110.075</v>
+        <v>111</v>
       </c>
     </row>
     <row r="230">
@@ -8891,10 +8891,10 @@
         <v>31.1447485460643</v>
       </c>
       <c r="I230" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J230" t="n">
-        <v>161</v>
+        <v>169.025</v>
       </c>
     </row>
     <row r="231">
@@ -8923,7 +8923,7 @@
         <v>19.6563555204675</v>
       </c>
       <c r="I231" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J231" t="n">
         <v>32</v>
@@ -8955,10 +8955,10 @@
         <v>28.7725751778499</v>
       </c>
       <c r="I232" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J232" t="n">
-        <v>44</v>
+        <v>43.025</v>
       </c>
     </row>
     <row r="233">
@@ -8987,7 +8987,7 @@
         <v>28.1059740844729</v>
       </c>
       <c r="I233" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J233" t="n">
         <v>41</v>
@@ -9019,10 +9019,10 @@
         <v>36.5795749361956</v>
       </c>
       <c r="I234" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="235">
@@ -9051,10 +9051,10 @@
         <v>19.9664433982473</v>
       </c>
       <c r="I235" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J235" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236">
@@ -9086,7 +9086,7 @@
         <v>78</v>
       </c>
       <c r="J236" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="237">
@@ -9115,7 +9115,7 @@
         <v>132.342943804092</v>
       </c>
       <c r="I237" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J237" t="n">
         <v>175</v>
@@ -9147,10 +9147,10 @@
         <v>140.323676491024</v>
       </c>
       <c r="I238" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J238" t="n">
-        <v>219.05</v>
+        <v>214.025</v>
       </c>
     </row>
     <row r="239">
@@ -9179,10 +9179,10 @@
         <v>189.037485273009</v>
       </c>
       <c r="I239" t="n">
-        <v>159</v>
+        <v>159.975</v>
       </c>
       <c r="J239" t="n">
-        <v>248.025</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240">
@@ -9211,10 +9211,10 @@
         <v>201.414244633708</v>
       </c>
       <c r="I240" t="n">
-        <v>146</v>
+        <v>150.975</v>
       </c>
       <c r="J240" t="n">
-        <v>246.025</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241">
@@ -9243,10 +9243,10 @@
         <v>201.451398308636</v>
       </c>
       <c r="I241" t="n">
-        <v>148</v>
+        <v>155.975</v>
       </c>
       <c r="J241" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242">
@@ -9275,10 +9275,10 @@
         <v>116.367647416266</v>
       </c>
       <c r="I242" t="n">
-        <v>94</v>
+        <v>92.975</v>
       </c>
       <c r="J242" t="n">
-        <v>153.05</v>
+        <v>156</v>
       </c>
     </row>
     <row r="243">
@@ -9307,10 +9307,10 @@
         <v>116.835441288839</v>
       </c>
       <c r="I243" t="n">
-        <v>88</v>
+        <v>89.975</v>
       </c>
       <c r="J243" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="244">
@@ -9339,10 +9339,10 @@
         <v>107.004528308256</v>
       </c>
       <c r="I244" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J244" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245">
@@ -9371,10 +9371,10 @@
         <v>86.9807404972758</v>
       </c>
       <c r="I245" t="n">
-        <v>64.975</v>
+        <v>63</v>
       </c>
       <c r="J245" t="n">
-        <v>136.025</v>
+        <v>142.025</v>
       </c>
     </row>
     <row r="246">
@@ -9403,10 +9403,10 @@
         <v>66.8249695027102</v>
       </c>
       <c r="I246" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J246" t="n">
-        <v>101.025</v>
+        <v>100.025</v>
       </c>
     </row>
     <row r="247">
@@ -9435,7 +9435,7 @@
         <v>69.9295988389539</v>
       </c>
       <c r="I247" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J247" t="n">
         <v>95</v>
@@ -9467,10 +9467,10 @@
         <v>66.5730456215597</v>
       </c>
       <c r="I248" t="n">
-        <v>42.975</v>
+        <v>42</v>
       </c>
       <c r="J248" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="249">
@@ -9499,10 +9499,10 @@
         <v>80.5199417494237</v>
       </c>
       <c r="I249" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J249" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="250">
@@ -9531,10 +9531,10 @@
         <v>65.7642035570634</v>
       </c>
       <c r="I250" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J250" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="251">
@@ -9566,7 +9566,7 @@
         <v>26</v>
       </c>
       <c r="J251" t="n">
-        <v>106</v>
+        <v>110.025</v>
       </c>
     </row>
     <row r="252">
@@ -9595,10 +9595,10 @@
         <v>43.4533753556377</v>
       </c>
       <c r="I252" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J252" t="n">
-        <v>122</v>
+        <v>125.025</v>
       </c>
     </row>
     <row r="253">
@@ -9627,10 +9627,10 @@
         <v>49.6865727403033</v>
       </c>
       <c r="I253" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J253" t="n">
-        <v>79.025</v>
+        <v>82.025</v>
       </c>
     </row>
     <row r="254">
@@ -9659,10 +9659,10 @@
         <v>95.9825097708466</v>
       </c>
       <c r="I254" t="n">
-        <v>63.95</v>
+        <v>63</v>
       </c>
       <c r="J254" t="n">
-        <v>321</v>
+        <v>328.025</v>
       </c>
     </row>
     <row r="255">
@@ -9691,10 +9691,10 @@
         <v>77.7401357431003</v>
       </c>
       <c r="I255" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J255" t="n">
-        <v>100.025</v>
+        <v>99.025</v>
       </c>
     </row>
     <row r="256">
@@ -9726,7 +9726,7 @@
         <v>63</v>
       </c>
       <c r="J256" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="257">
@@ -9755,10 +9755,10 @@
         <v>45.5393542294807</v>
       </c>
       <c r="I257" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J257" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258">
@@ -9787,10 +9787,10 @@
         <v>42.9977678968875</v>
       </c>
       <c r="I258" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J258" t="n">
-        <v>123.125</v>
+        <v>126.025</v>
       </c>
     </row>
     <row r="259">
@@ -9819,10 +9819,10 @@
         <v>49.597804939176</v>
       </c>
       <c r="I259" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J259" t="n">
-        <v>116.05</v>
+        <v>119</v>
       </c>
     </row>
     <row r="260">
@@ -9854,7 +9854,7 @@
         <v>36</v>
       </c>
       <c r="J260" t="n">
-        <v>88.025</v>
+        <v>92.025</v>
       </c>
     </row>
     <row r="261">
@@ -9886,7 +9886,7 @@
         <v>47</v>
       </c>
       <c r="J261" t="n">
-        <v>105</v>
+        <v>103.025</v>
       </c>
     </row>
     <row r="262">
@@ -9918,7 +9918,7 @@
         <v>52</v>
       </c>
       <c r="J262" t="n">
-        <v>118</v>
+        <v>118.025</v>
       </c>
     </row>
     <row r="263">
@@ -9947,10 +9947,10 @@
         <v>111.734360126371</v>
       </c>
       <c r="I263" t="n">
-        <v>65.975</v>
+        <v>68.975</v>
       </c>
       <c r="J263" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="264">
@@ -9979,10 +9979,10 @@
         <v>122.390826911805</v>
       </c>
       <c r="I264" t="n">
-        <v>100</v>
+        <v>100.975</v>
       </c>
       <c r="J264" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="265">
@@ -10011,10 +10011,10 @@
         <v>109.46995732074</v>
       </c>
       <c r="I265" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J265" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266">
@@ -10043,10 +10043,10 @@
         <v>56.7901457337745</v>
       </c>
       <c r="I266" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J266" t="n">
-        <v>74.025</v>
+        <v>72</v>
       </c>
     </row>
     <row r="267">
@@ -10075,7 +10075,7 @@
         <v>51.0345815097718</v>
       </c>
       <c r="I267" t="n">
-        <v>37.975</v>
+        <v>37</v>
       </c>
       <c r="J267" t="n">
         <v>68</v>
@@ -10107,10 +10107,10 @@
         <v>47.0164773959425</v>
       </c>
       <c r="I268" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J268" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="269">
@@ -10139,10 +10139,10 @@
         <v>80.9654676212192</v>
       </c>
       <c r="I269" t="n">
-        <v>59</v>
+        <v>59.975</v>
       </c>
       <c r="J269" t="n">
-        <v>150.025</v>
+        <v>142.025</v>
       </c>
     </row>
     <row r="270">
@@ -10171,10 +10171,10 @@
         <v>80.6234828294995</v>
       </c>
       <c r="I270" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J270" t="n">
-        <v>106.025</v>
+        <v>108.025</v>
       </c>
     </row>
     <row r="271">
@@ -10203,10 +10203,10 @@
         <v>86.2172053978036</v>
       </c>
       <c r="I271" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J271" t="n">
-        <v>115</v>
+        <v>116.025</v>
       </c>
     </row>
     <row r="272">
@@ -10235,10 +10235,10 @@
         <v>81.4641022640645</v>
       </c>
       <c r="I272" t="n">
-        <v>55</v>
+        <v>53.975</v>
       </c>
       <c r="J272" t="n">
-        <v>141.05</v>
+        <v>144</v>
       </c>
     </row>
     <row r="273">
@@ -10267,7 +10267,7 @@
         <v>103.126946531015</v>
       </c>
       <c r="I273" t="n">
-        <v>40.975</v>
+        <v>39</v>
       </c>
       <c r="J273" t="n">
         <v>169</v>
@@ -10299,10 +10299,10 @@
         <v>103.411113400393</v>
       </c>
       <c r="I274" t="n">
-        <v>27</v>
+        <v>29.975</v>
       </c>
       <c r="J274" t="n">
-        <v>229.025</v>
+        <v>227</v>
       </c>
     </row>
     <row r="275">
@@ -10331,10 +10331,10 @@
         <v>75.5536865931553</v>
       </c>
       <c r="I275" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J275" t="n">
-        <v>313</v>
+        <v>306.025</v>
       </c>
     </row>
     <row r="276">
@@ -10363,7 +10363,7 @@
         <v>68.3384287284413</v>
       </c>
       <c r="I276" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J276" t="n">
         <v>97.025</v>
@@ -10395,10 +10395,10 @@
         <v>73.9193741025958</v>
       </c>
       <c r="I277" t="n">
-        <v>55</v>
+        <v>53.975</v>
       </c>
       <c r="J277" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="278">
@@ -10427,10 +10427,10 @@
         <v>69.8704834171064</v>
       </c>
       <c r="I278" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J278" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279">
@@ -10459,10 +10459,10 @@
         <v>83.743170280431</v>
       </c>
       <c r="I279" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J279" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="280">
@@ -10491,10 +10491,10 @@
         <v>88.9100211156911</v>
       </c>
       <c r="I280" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J280" t="n">
-        <v>133.025</v>
+        <v>130</v>
       </c>
     </row>
     <row r="281">
@@ -10526,7 +10526,7 @@
         <v>63</v>
       </c>
       <c r="J281" t="n">
-        <v>132</v>
+        <v>131.05</v>
       </c>
     </row>
     <row r="282">
@@ -10555,10 +10555,10 @@
         <v>77.9652872060243</v>
       </c>
       <c r="I282" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J282" t="n">
-        <v>155</v>
+        <v>152.025</v>
       </c>
     </row>
     <row r="283">
@@ -10587,10 +10587,10 @@
         <v>69.2307755661941</v>
       </c>
       <c r="I283" t="n">
-        <v>45.975</v>
+        <v>43</v>
       </c>
       <c r="J283" t="n">
-        <v>89.025</v>
+        <v>91</v>
       </c>
     </row>
     <row r="284">
@@ -10622,7 +10622,7 @@
         <v>63</v>
       </c>
       <c r="J284" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="285">
@@ -10651,10 +10651,10 @@
         <v>79.6824856530128</v>
       </c>
       <c r="I285" t="n">
-        <v>62</v>
+        <v>61.975</v>
       </c>
       <c r="J285" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286">
@@ -10683,10 +10683,10 @@
         <v>86.7034830815695</v>
       </c>
       <c r="I286" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J286" t="n">
-        <v>107.025</v>
+        <v>107</v>
       </c>
     </row>
     <row r="287">
@@ -10718,7 +10718,7 @@
         <v>7</v>
       </c>
       <c r="J287" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288">
@@ -10750,7 +10750,7 @@
         <v>6</v>
       </c>
       <c r="J288" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289">
@@ -10814,7 +10814,7 @@
         <v>6</v>
       </c>
       <c r="J290" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291">
@@ -10843,10 +10843,10 @@
         <v>13.0778956771095</v>
       </c>
       <c r="I291" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J291" t="n">
-        <v>21.025</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292">
@@ -10875,10 +10875,10 @@
         <v>17.9881737330571</v>
       </c>
       <c r="I292" t="n">
-        <v>6.97500000000002</v>
+        <v>7</v>
       </c>
       <c r="J292" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293">
@@ -10907,10 +10907,10 @@
         <v>90.5704734719222</v>
       </c>
       <c r="I293" t="n">
-        <v>39</v>
+        <v>39.975</v>
       </c>
       <c r="J293" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="294">
@@ -10942,7 +10942,7 @@
         <v>82.975</v>
       </c>
       <c r="J294" t="n">
-        <v>140</v>
+        <v>139.025</v>
       </c>
     </row>
     <row r="295">
@@ -10971,10 +10971,10 @@
         <v>102.364569282221</v>
       </c>
       <c r="I295" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J295" t="n">
-        <v>147.025</v>
+        <v>152</v>
       </c>
     </row>
     <row r="296">
@@ -11003,10 +11003,10 @@
         <v>231.526457343019</v>
       </c>
       <c r="I296" t="n">
-        <v>154</v>
+        <v>155.975</v>
       </c>
       <c r="J296" t="n">
-        <v>290</v>
+        <v>291.025</v>
       </c>
     </row>
     <row r="297">
@@ -11035,10 +11035,10 @@
         <v>175.950769156803</v>
       </c>
       <c r="I297" t="n">
-        <v>123</v>
+        <v>120.975</v>
       </c>
       <c r="J297" t="n">
-        <v>325.075</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298">
@@ -11067,10 +11067,10 @@
         <v>153.573446339938</v>
       </c>
       <c r="I298" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J298" t="n">
-        <v>366.025</v>
+        <v>365.025</v>
       </c>
     </row>
     <row r="299">
@@ -11099,10 +11099,10 @@
         <v>71.7710461729577</v>
       </c>
       <c r="I299" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J299" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300">
@@ -11131,10 +11131,10 @@
         <v>72.7841485232899</v>
       </c>
       <c r="I300" t="n">
-        <v>50</v>
+        <v>52.975</v>
       </c>
       <c r="J300" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301">
@@ -11163,10 +11163,10 @@
         <v>66.0220717415845</v>
       </c>
       <c r="I301" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J301" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302">
@@ -11198,7 +11198,7 @@
         <v>4</v>
       </c>
       <c r="J302" t="n">
-        <v>49</v>
+        <v>45.025</v>
       </c>
     </row>
     <row r="303">
@@ -11230,7 +11230,7 @@
         <v>2</v>
       </c>
       <c r="J303" t="n">
-        <v>33</v>
+        <v>33.025</v>
       </c>
     </row>
     <row r="304">
@@ -11262,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="J304" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="305">
@@ -11355,10 +11355,10 @@
         <v>19.2350061137593</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>2.97500000000002</v>
       </c>
       <c r="J307" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="308">
@@ -11387,10 +11387,10 @@
         <v>338.066818522325</v>
       </c>
       <c r="I308" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J308" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="309">
@@ -11419,7 +11419,7 @@
         <v>335.007846944141</v>
       </c>
       <c r="I309" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J309" t="n">
         <v>412.025</v>
@@ -11451,10 +11451,10 @@
         <v>303.105307187837</v>
       </c>
       <c r="I310" t="n">
-        <v>250.975</v>
+        <v>252</v>
       </c>
       <c r="J310" t="n">
-        <v>438</v>
+        <v>452.175</v>
       </c>
     </row>
     <row r="311">
@@ -11515,10 +11515,10 @@
         <v>90.7580679634928</v>
       </c>
       <c r="I312" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J312" t="n">
-        <v>117.025</v>
+        <v>118</v>
       </c>
     </row>
     <row r="313">
@@ -11547,10 +11547,10 @@
         <v>80.5952801723183</v>
       </c>
       <c r="I313" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J313" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314">
@@ -11579,10 +11579,10 @@
         <v>74.6473874973993</v>
       </c>
       <c r="I314" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J314" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="315">
@@ -11611,10 +11611,10 @@
         <v>67.5319506008053</v>
       </c>
       <c r="I315" t="n">
-        <v>38</v>
+        <v>35.975</v>
       </c>
       <c r="J315" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="316">
@@ -11643,10 +11643,10 @@
         <v>76.1347533818804</v>
       </c>
       <c r="I316" t="n">
-        <v>29.975</v>
+        <v>32</v>
       </c>
       <c r="J316" t="n">
-        <v>107.025</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317">
@@ -11675,10 +11675,10 @@
         <v>62.9073140498702</v>
       </c>
       <c r="I317" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J317" t="n">
-        <v>95</v>
+        <v>93.025</v>
       </c>
     </row>
     <row r="318">
@@ -11707,10 +11707,10 @@
         <v>83.5895488388941</v>
       </c>
       <c r="I318" t="n">
-        <v>59</v>
+        <v>58.975</v>
       </c>
       <c r="J318" t="n">
-        <v>112.025</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319">
@@ -11739,10 +11739,10 @@
         <v>54.7840513102574</v>
       </c>
       <c r="I319" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J319" t="n">
-        <v>117</v>
+        <v>108.025</v>
       </c>
     </row>
     <row r="320">
@@ -11771,10 +11771,10 @@
         <v>142.060633118123</v>
       </c>
       <c r="I320" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J320" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="321">
@@ -11806,7 +11806,7 @@
         <v>111</v>
       </c>
       <c r="J321" t="n">
-        <v>189</v>
+        <v>190.025</v>
       </c>
     </row>
     <row r="322">
@@ -11835,10 +11835,10 @@
         <v>147.608641196392</v>
       </c>
       <c r="I322" t="n">
-        <v>114.975</v>
+        <v>113</v>
       </c>
       <c r="J322" t="n">
-        <v>203</v>
+        <v>207.025</v>
       </c>
     </row>
     <row r="323">
@@ -11870,7 +11870,7 @@
         <v>44</v>
       </c>
       <c r="J323" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324">
@@ -11899,10 +11899,10 @@
         <v>68.6809763361443</v>
       </c>
       <c r="I324" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J324" t="n">
-        <v>111</v>
+        <v>108.025</v>
       </c>
     </row>
     <row r="325">
@@ -11934,7 +11934,7 @@
         <v>27</v>
       </c>
       <c r="J325" t="n">
-        <v>108</v>
+        <v>102.025</v>
       </c>
     </row>
     <row r="326">
@@ -11963,7 +11963,7 @@
         <v>113.88413489937</v>
       </c>
       <c r="I326" t="n">
-        <v>87.95</v>
+        <v>87</v>
       </c>
       <c r="J326" t="n">
         <v>137</v>
@@ -11995,10 +11995,10 @@
         <v>115.001899098686</v>
       </c>
       <c r="I327" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J327" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="328">
@@ -12027,10 +12027,10 @@
         <v>118.343486240797</v>
       </c>
       <c r="I328" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J328" t="n">
-        <v>154</v>
+        <v>151.025</v>
       </c>
     </row>
     <row r="329">
@@ -12059,10 +12059,10 @@
         <v>117.519675543365</v>
       </c>
       <c r="I329" t="n">
-        <v>81</v>
+        <v>83.975</v>
       </c>
       <c r="J329" t="n">
-        <v>198</v>
+        <v>191.025</v>
       </c>
     </row>
     <row r="330">
@@ -12091,10 +12091,10 @@
         <v>103.128518918777</v>
       </c>
       <c r="I330" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J330" t="n">
-        <v>226</v>
+        <v>216.025</v>
       </c>
     </row>
     <row r="331">
@@ -12123,10 +12123,10 @@
         <v>97.0574722892753</v>
       </c>
       <c r="I331" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J331" t="n">
-        <v>126.05</v>
+        <v>130</v>
       </c>
     </row>
     <row r="332">
@@ -12155,10 +12155,10 @@
         <v>146.167988617888</v>
       </c>
       <c r="I332" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J332" t="n">
-        <v>340</v>
+        <v>329.025</v>
       </c>
     </row>
     <row r="333">
@@ -12187,10 +12187,10 @@
         <v>127.182056452199</v>
       </c>
       <c r="I333" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J333" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="334">
@@ -12219,10 +12219,10 @@
         <v>123.161254440026</v>
       </c>
       <c r="I334" t="n">
-        <v>101</v>
+        <v>100.975</v>
       </c>
       <c r="J334" t="n">
-        <v>154</v>
+        <v>150.025</v>
       </c>
     </row>
     <row r="335">
@@ -12254,7 +12254,7 @@
         <v>23</v>
       </c>
       <c r="J335" t="n">
-        <v>105</v>
+        <v>104.025</v>
       </c>
     </row>
     <row r="336">
@@ -12283,10 +12283,10 @@
         <v>58.8082410921446</v>
       </c>
       <c r="I336" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J336" t="n">
-        <v>113</v>
+        <v>114.025</v>
       </c>
     </row>
     <row r="337">
@@ -12318,7 +12318,7 @@
         <v>41</v>
       </c>
       <c r="J337" t="n">
-        <v>173</v>
+        <v>168.025</v>
       </c>
     </row>
     <row r="338">
@@ -12350,7 +12350,7 @@
         <v>16</v>
       </c>
       <c r="J338" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="339">
@@ -12379,10 +12379,10 @@
         <v>33.7012348538016</v>
       </c>
       <c r="I339" t="n">
-        <v>9</v>
+        <v>9.97500000000002</v>
       </c>
       <c r="J339" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="340">
@@ -12414,7 +12414,7 @@
         <v>36</v>
       </c>
       <c r="J340" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="341">
@@ -12443,10 +12443,10 @@
         <v>20.9102400070784</v>
       </c>
       <c r="I341" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J341" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="342">
@@ -12507,7 +12507,7 @@
         <v>30.954110232467</v>
       </c>
       <c r="I343" t="n">
-        <v>9.97500000000002</v>
+        <v>10</v>
       </c>
       <c r="J343" t="n">
         <v>47</v>
@@ -12542,7 +12542,7 @@
         <v>4</v>
       </c>
       <c r="J344" t="n">
-        <v>64</v>
+        <v>62.025</v>
       </c>
     </row>
     <row r="345">
@@ -12606,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="J346" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347">
@@ -12638,7 +12638,7 @@
         <v>7</v>
       </c>
       <c r="J347" t="n">
-        <v>102.025</v>
+        <v>105.05</v>
       </c>
     </row>
     <row r="348">
@@ -12670,7 +12670,7 @@
         <v>4</v>
       </c>
       <c r="J348" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349">
@@ -12699,10 +12699,10 @@
         <v>20.9955003979904</v>
       </c>
       <c r="I349" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J349" t="n">
-        <v>50</v>
+        <v>46.025</v>
       </c>
     </row>
     <row r="350">
@@ -12731,10 +12731,10 @@
         <v>22.3199064581779</v>
       </c>
       <c r="I350" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J350" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -12763,10 +12763,10 @@
         <v>18.9843074444483</v>
       </c>
       <c r="I351" t="n">
-        <v>10</v>
+        <v>10.975</v>
       </c>
       <c r="J351" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352">
@@ -12795,10 +12795,10 @@
         <v>31.3549581935407</v>
       </c>
       <c r="I352" t="n">
-        <v>12</v>
+        <v>11.975</v>
       </c>
       <c r="J352" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="353">
@@ -12830,7 +12830,7 @@
         <v>51</v>
       </c>
       <c r="J353" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="354">
@@ -12859,10 +12859,10 @@
         <v>70.1500391622813</v>
       </c>
       <c r="I354" t="n">
-        <v>52.975</v>
+        <v>51</v>
       </c>
       <c r="J354" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="355">
@@ -12891,10 +12891,10 @@
         <v>80.2843777755573</v>
       </c>
       <c r="I355" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J355" t="n">
-        <v>100.025</v>
+        <v>98</v>
       </c>
     </row>
     <row r="356">
@@ -12958,7 +12958,7 @@
         <v>53</v>
       </c>
       <c r="J357" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="358">
@@ -12987,10 +12987,10 @@
         <v>78.987469243391</v>
       </c>
       <c r="I358" t="n">
-        <v>53.975</v>
+        <v>56</v>
       </c>
       <c r="J358" t="n">
-        <v>99.025</v>
+        <v>100</v>
       </c>
     </row>
     <row r="359">
@@ -13115,7 +13115,7 @@
         <v>26.8523556956372</v>
       </c>
       <c r="I362" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J362" t="n">
         <v>45</v>
@@ -13147,10 +13147,10 @@
         <v>16.9932195826452</v>
       </c>
       <c r="I363" t="n">
-        <v>8.97500000000002</v>
+        <v>9</v>
       </c>
       <c r="J363" t="n">
-        <v>31</v>
+        <v>31.025</v>
       </c>
     </row>
     <row r="364">
@@ -13179,10 +13179,10 @@
         <v>12.8836090805847</v>
       </c>
       <c r="I364" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J364" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="365">
@@ -13211,10 +13211,10 @@
         <v>85.5136272186937</v>
       </c>
       <c r="I365" t="n">
-        <v>53</v>
+        <v>51.975</v>
       </c>
       <c r="J365" t="n">
-        <v>171.025</v>
+        <v>175.025</v>
       </c>
     </row>
     <row r="366">
@@ -13243,10 +13243,10 @@
         <v>66.7345874422838</v>
       </c>
       <c r="I366" t="n">
-        <v>40.975</v>
+        <v>40</v>
       </c>
       <c r="J366" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367">
@@ -13275,10 +13275,10 @@
         <v>66.9116715408114</v>
       </c>
       <c r="I367" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J367" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="368">
@@ -13310,7 +13310,7 @@
         <v>46</v>
       </c>
       <c r="J368" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="369">
@@ -13342,7 +13342,7 @@
         <v>50</v>
       </c>
       <c r="J369" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="370">
@@ -13371,10 +13371,10 @@
         <v>95.286236482331</v>
       </c>
       <c r="I370" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J370" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="371">
@@ -13403,10 +13403,10 @@
         <v>44.1052400986193</v>
       </c>
       <c r="I371" t="n">
-        <v>21</v>
+        <v>22.975</v>
       </c>
       <c r="J371" t="n">
-        <v>76.025</v>
+        <v>78.025</v>
       </c>
     </row>
     <row r="372">
@@ -13435,10 +13435,10 @@
         <v>42.1202221011725</v>
       </c>
       <c r="I372" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J372" t="n">
-        <v>89.0749999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="373">
@@ -13467,7 +13467,7 @@
         <v>37.6571025994189</v>
       </c>
       <c r="I373" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J373" t="n">
         <v>52</v>
@@ -13499,10 +13499,10 @@
         <v>283.173551458217</v>
       </c>
       <c r="I374" t="n">
-        <v>246.975</v>
+        <v>248</v>
       </c>
       <c r="J374" t="n">
-        <v>323</v>
+        <v>317.025</v>
       </c>
     </row>
     <row r="375">
@@ -13531,10 +13531,10 @@
         <v>287.11321454802</v>
       </c>
       <c r="I375" t="n">
-        <v>247.975</v>
+        <v>251</v>
       </c>
       <c r="J375" t="n">
-        <v>322.025</v>
+        <v>323</v>
       </c>
     </row>
     <row r="376">
@@ -13563,10 +13563,10 @@
         <v>288.279026970901</v>
       </c>
       <c r="I376" t="n">
-        <v>254</v>
+        <v>252.975</v>
       </c>
       <c r="J376" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="377">
@@ -13595,10 +13595,10 @@
         <v>644.15901481425</v>
       </c>
       <c r="I377" t="n">
-        <v>584.975</v>
+        <v>582</v>
       </c>
       <c r="J377" t="n">
-        <v>696</v>
+        <v>704.025</v>
       </c>
     </row>
     <row r="378">
@@ -13627,10 +13627,10 @@
         <v>575.681716701462</v>
       </c>
       <c r="I378" t="n">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J378" t="n">
-        <v>707.05</v>
+        <v>705.025</v>
       </c>
     </row>
     <row r="379">
@@ -13659,7 +13659,7 @@
         <v>559.620105064615</v>
       </c>
       <c r="I379" t="n">
-        <v>432.925</v>
+        <v>431.975</v>
       </c>
       <c r="J379" t="n">
         <v>711</v>
@@ -13694,7 +13694,7 @@
         <v>38</v>
       </c>
       <c r="J380" t="n">
-        <v>144.025</v>
+        <v>150</v>
       </c>
     </row>
     <row r="381">
@@ -13723,10 +13723,10 @@
         <v>61.0990937262141</v>
       </c>
       <c r="I381" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J381" t="n">
-        <v>94</v>
+        <v>94.025</v>
       </c>
     </row>
     <row r="382">
@@ -13755,10 +13755,10 @@
         <v>78.8214646780977</v>
       </c>
       <c r="I382" t="n">
-        <v>36</v>
+        <v>32.975</v>
       </c>
       <c r="J382" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383">
@@ -13787,10 +13787,10 @@
         <v>18.8928513678097</v>
       </c>
       <c r="I383" t="n">
-        <v>8.97500000000002</v>
+        <v>8</v>
       </c>
       <c r="J383" t="n">
-        <v>49.025</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384">
@@ -13822,7 +13822,7 @@
         <v>7</v>
       </c>
       <c r="J384" t="n">
-        <v>68.025</v>
+        <v>66.025</v>
       </c>
     </row>
     <row r="385">
@@ -13854,7 +13854,7 @@
         <v>5</v>
       </c>
       <c r="J385" t="n">
-        <v>29.025</v>
+        <v>28.025</v>
       </c>
     </row>
     <row r="386">
@@ -13883,10 +13883,10 @@
         <v>43.8109079022923</v>
       </c>
       <c r="I386" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J386" t="n">
-        <v>129</v>
+        <v>134.025</v>
       </c>
     </row>
     <row r="387">
@@ -13915,10 +13915,10 @@
         <v>57.576968265649</v>
       </c>
       <c r="I387" t="n">
-        <v>31</v>
+        <v>29.975</v>
       </c>
       <c r="J387" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="388">
@@ -13947,7 +13947,7 @@
         <v>45.1306509238347</v>
       </c>
       <c r="I388" t="n">
-        <v>25</v>
+        <v>22.975</v>
       </c>
       <c r="J388" t="n">
         <v>71</v>
